--- a/dbMysql/workbench/tugas1.normalisais.xlsx
+++ b/dbMysql/workbench/tugas1.normalisais.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\msibPhp\materi_msib_htp\dbMysql\workbench\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD520B53-1AEB-42E4-9AD3-3EDF3E0C17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55766ED4-EA4A-4742-9D58-7284FC0CE636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{BF032586-815E-4A63-BDD8-476955517F1C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BF032586-815E-4A63-BDD8-476955517F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3096038A-ED6D-4348-8BDD-6FACC32121BE}">
   <dimension ref="B1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +569,7 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1"/>
@@ -586,7 +586,7 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1"/>
@@ -690,9 +690,9 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
